--- a/data/trans_orig/P24E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>8330</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3597</v>
+        <v>3563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14211</v>
+        <v>14361</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2895756250627773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1250574417707562</v>
+        <v>0.1238652102345387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.494051609984605</v>
+        <v>0.4992625248320257</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4820</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1270</v>
+        <v>1949</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8263</v>
+        <v>8791</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4607660119207886</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1213656820762332</v>
+        <v>0.1863387782764276</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7898397313759468</v>
+        <v>0.8403452230489998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -785,19 +785,19 @@
         <v>13150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7638</v>
+        <v>7204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20646</v>
+        <v>19458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3352299829500967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1947270834574337</v>
+        <v>0.1836612143883098</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5263460964138361</v>
+        <v>0.4960584858567553</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>15073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9315</v>
+        <v>9814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21325</v>
+        <v>20536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5240138890808312</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.323822622553988</v>
+        <v>0.3411736480883307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7413412054721511</v>
+        <v>0.7139087975447126</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -835,19 +835,19 @@
         <v>3278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>955</v>
+        <v>892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7546</v>
+        <v>7037</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3133429888301962</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09129039259320643</v>
+        <v>0.08524613195394157</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.721350320982234</v>
+        <v>0.6726454942993529</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -856,19 +856,19 @@
         <v>18351</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11129</v>
+        <v>11564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24687</v>
+        <v>24436</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.467830566798467</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2837085420454857</v>
+        <v>0.2947959015403288</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6293516323819419</v>
+        <v>0.6229441677470933</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>5362</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1913</v>
+        <v>1964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11034</v>
+        <v>11293</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1864104858563914</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06649239922730828</v>
+        <v>0.06827270095735093</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3835918385518298</v>
+        <v>0.392607084924387</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6212</v>
+        <v>6237</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2258909992490152</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5938082961951084</v>
+        <v>0.5961860906964126</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -927,19 +927,19 @@
         <v>7725</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3287</v>
+        <v>3705</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14012</v>
+        <v>13909</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1969394502514363</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08380111858434515</v>
+        <v>0.09444656264837581</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3572121453945354</v>
+        <v>0.3545751178759549</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>19600</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11771</v>
+        <v>12816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28221</v>
+        <v>29304</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3025964986930307</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1817212578772316</v>
+        <v>0.1978583434109111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4356868486269968</v>
+        <v>0.4524109228992546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1052,19 +1052,19 @@
         <v>15197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9461</v>
+        <v>9165</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22775</v>
+        <v>22212</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3091611352025082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1924769681109647</v>
+        <v>0.1864519773462466</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4633222876469542</v>
+        <v>0.4518706896895583</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -1073,19 +1073,19 @@
         <v>34797</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25841</v>
+        <v>25012</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46428</v>
+        <v>46334</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3054288219151736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2268150582114114</v>
+        <v>0.2195409125766795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4075168022401313</v>
+        <v>0.4066925547614884</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>35326</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27112</v>
+        <v>25892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43914</v>
+        <v>43642</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5453759916487905</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4185644229718573</v>
+        <v>0.3997281584842025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6779620328643678</v>
+        <v>0.6737563473370043</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -1123,19 +1123,19 @@
         <v>25427</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18148</v>
+        <v>18484</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32332</v>
+        <v>33523</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5172813260109032</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3692036740938451</v>
+        <v>0.3760438166464495</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.657754421497309</v>
+        <v>0.681989741813829</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -1144,19 +1144,19 @@
         <v>60753</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>48552</v>
+        <v>48912</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>71054</v>
+        <v>71987</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5332545019380281</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.426160602829129</v>
+        <v>0.4293239823641438</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6236716952176213</v>
+        <v>0.6318598632197224</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>9847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4868</v>
+        <v>4860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17155</v>
+        <v>16757</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1520275096581788</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07515076077572587</v>
+        <v>0.07503482157374974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2648482815240554</v>
+        <v>0.2587069093730038</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1194,19 +1194,19 @@
         <v>8531</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3907</v>
+        <v>3432</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15268</v>
+        <v>14480</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1735575387865887</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07949175139336546</v>
+        <v>0.06981044842114201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3106070632224679</v>
+        <v>0.2945821746579214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1215,19 +1215,19 @@
         <v>18379</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11370</v>
+        <v>11788</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27929</v>
+        <v>29060</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1613166761467983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09980107799061998</v>
+        <v>0.1034677574174109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.245145075996475</v>
+        <v>0.2550696053611194</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>9907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5815</v>
+        <v>5059</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15862</v>
+        <v>15675</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3471742299136638</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2037567194512173</v>
+        <v>0.1772898207780753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5558333208596946</v>
+        <v>0.5492901945397917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1340,19 +1340,19 @@
         <v>4913</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1008</v>
+        <v>1886</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8958</v>
+        <v>9859</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.183011846252934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03752985845433409</v>
+        <v>0.07026013324524075</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3336655287878051</v>
+        <v>0.3672504368083137</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -1361,19 +1361,19 @@
         <v>14820</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8908</v>
+        <v>8795</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21570</v>
+        <v>21854</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2675988547449875</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1608483233400539</v>
+        <v>0.1588069670239686</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3894734119846641</v>
+        <v>0.3945993406851951</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>15591</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9864</v>
+        <v>10586</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20581</v>
+        <v>20565</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5463419230089228</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3456735088227783</v>
+        <v>0.3709666532748176</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7212125793454942</v>
+        <v>0.7206420556499575</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1411,19 +1411,19 @@
         <v>14887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9888</v>
+        <v>9711</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19827</v>
+        <v>19862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5545426064314612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3683335317538887</v>
+        <v>0.3617219758892812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7385602638970408</v>
+        <v>0.7398668208321544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1432,19 +1432,19 @@
         <v>30478</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23253</v>
+        <v>22659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37295</v>
+        <v>37320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.55031708738846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4198662110468658</v>
+        <v>0.4091272549717407</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6734026337860225</v>
+        <v>0.6738457729718693</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>3039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8035</v>
+        <v>7076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1064838470774134</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03412642638635584</v>
+        <v>0.03431885754492704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.281564803922816</v>
+        <v>0.2479732387616396</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1482,19 +1482,19 @@
         <v>7046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3031</v>
+        <v>3062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12083</v>
+        <v>12519</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2624455473156048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1128852674910285</v>
+        <v>0.114070310586087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.450077201265339</v>
+        <v>0.466337332938309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1503,19 +1503,19 @@
         <v>10084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5063</v>
+        <v>5087</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16165</v>
+        <v>16765</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1820840578665526</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09141266171248712</v>
+        <v>0.09185335304161005</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2918683477694836</v>
+        <v>0.3027031695942871</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>12940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7400</v>
+        <v>7181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19623</v>
+        <v>19790</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2816472549766563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1610686324644858</v>
+        <v>0.1562940403320495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4271078982896147</v>
+        <v>0.4307363126822493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1628,19 +1628,19 @@
         <v>14777</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8990</v>
+        <v>8524</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20716</v>
+        <v>21618</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3673768318721077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2234917518226373</v>
+        <v>0.2119277640544387</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5150396543988738</v>
+        <v>0.5374494706830342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1649,19 +1649,19 @@
         <v>27717</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18564</v>
+        <v>20698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36559</v>
+        <v>37281</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3216658892563025</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2154437263113877</v>
+        <v>0.240213439082709</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4242797359281392</v>
+        <v>0.432660425913821</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>27561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20582</v>
+        <v>21192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33806</v>
+        <v>34541</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5998857150134099</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4479789294111335</v>
+        <v>0.4612669267539435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7358102776513011</v>
+        <v>0.7518146359140508</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1699,19 +1699,19 @@
         <v>17550</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11598</v>
+        <v>11331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23838</v>
+        <v>23945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4363178944427165</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2883338822499918</v>
+        <v>0.2817104040814869</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.592634907489486</v>
+        <v>0.5953124501193195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1720,19 +1720,19 @@
         <v>45111</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36192</v>
+        <v>36700</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54813</v>
+        <v>54504</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5235321270408477</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.420020078101274</v>
+        <v>0.4259159836036149</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6361223231190111</v>
+        <v>0.6325369364612917</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>5443</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1897</v>
+        <v>1824</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11800</v>
+        <v>11363</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1184670300099339</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04128657067303552</v>
+        <v>0.03969720209230681</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2568290191530879</v>
+        <v>0.2473325218663614</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1770,19 +1770,19 @@
         <v>7896</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3780</v>
+        <v>3770</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12940</v>
+        <v>13934</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1963052736851758</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09398126598606196</v>
+        <v>0.09371639989029709</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3217082295109994</v>
+        <v>0.3464271671685197</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1791,19 +1791,19 @@
         <v>13339</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7885</v>
+        <v>7412</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22539</v>
+        <v>21987</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1548019837028497</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09150340794889428</v>
+        <v>0.08601693144338332</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2615763997897768</v>
+        <v>0.2551667692345288</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>12140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7648</v>
+        <v>7228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17707</v>
+        <v>17474</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4241623353137133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2672319844380461</v>
+        <v>0.2525462753630763</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6187019099886103</v>
+        <v>0.6105616855532566</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1916,19 +1916,19 @@
         <v>13270</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8744</v>
+        <v>8871</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17467</v>
+        <v>17579</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5975653853910057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3937594837406373</v>
+        <v>0.3995072595177643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7865836287866278</v>
+        <v>0.7916232535718702</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1937,19 +1937,19 @@
         <v>25409</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18586</v>
+        <v>18434</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>32508</v>
+        <v>32937</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4999217805410667</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3656696917518416</v>
+        <v>0.3626787608311149</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6395994934403783</v>
+        <v>0.6480347153914807</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>13826</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8971</v>
+        <v>9183</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18716</v>
+        <v>19558</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4831061826998995</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3134435973037487</v>
+        <v>0.3208429230483141</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6539611060991296</v>
+        <v>0.6833761335787023</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1987,19 +1987,19 @@
         <v>7005</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2983</v>
+        <v>3082</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11893</v>
+        <v>11782</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3154427410724325</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1343411864296341</v>
+        <v>0.1388022447700127</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5355955964488992</v>
+        <v>0.5305984515784027</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -2008,19 +2008,19 @@
         <v>20831</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14284</v>
+        <v>13943</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>27600</v>
+        <v>27719</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4098543609070081</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2810384328736044</v>
+        <v>0.2743357538054729</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.543023948426519</v>
+        <v>0.5453621578826561</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>2654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7397</v>
+        <v>6336</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0927314819863872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02836991426462681</v>
+        <v>0.0283222141480017</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2584669919842539</v>
+        <v>0.2213794167181069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5766</v>
+        <v>6339</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08699187353656182</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2596745328151976</v>
+        <v>0.2854510574032395</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2079,19 +2079,19 @@
         <v>4586</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1714</v>
+        <v>1758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9911</v>
+        <v>9685</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09022385855192523</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03371815910093608</v>
+        <v>0.03458993259884369</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1949974182398227</v>
+        <v>0.1905534662538051</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>14687</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8957</v>
+        <v>8817</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20679</v>
+        <v>21204</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3445252437920823</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2101129046866506</v>
+        <v>0.2068120054371425</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4850581530353671</v>
+        <v>0.4973948109819974</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2204,19 +2204,19 @@
         <v>10238</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5825</v>
+        <v>5889</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14628</v>
+        <v>14498</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4887973612915604</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2781076042560645</v>
+        <v>0.2811475235542525</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6984104791643695</v>
+        <v>0.6921706072525262</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -2225,19 +2225,19 @@
         <v>24925</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>17527</v>
+        <v>17282</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33028</v>
+        <v>33235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.392054705428074</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.275690547191639</v>
+        <v>0.271838041882691</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5195098845977899</v>
+        <v>0.5227585993485468</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>20759</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14746</v>
+        <v>14793</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27358</v>
+        <v>26797</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4869477516360836</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3458871433261195</v>
+        <v>0.3469920774447374</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.641729945622223</v>
+        <v>0.6285917101459141</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2275,19 +2275,19 @@
         <v>9677</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5344</v>
+        <v>5433</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13982</v>
+        <v>14036</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4620047292809539</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2551407623655348</v>
+        <v>0.2593903374902027</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6675411042484993</v>
+        <v>0.6701580326327108</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2296,19 +2296,19 @@
         <v>30436</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22917</v>
+        <v>22356</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38680</v>
+        <v>38034</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4787304436443429</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3604648780151038</v>
+        <v>0.3516408541943105</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6084130649536194</v>
+        <v>0.5982449233502144</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>7184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3116</v>
+        <v>3170</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13261</v>
+        <v>13458</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1685270045718341</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07309483377435734</v>
+        <v>0.07435537556335446</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3110615696458836</v>
+        <v>0.3156850587081478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5791</v>
+        <v>4924</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04919790942748564</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2764870933690693</v>
+        <v>0.2350973608790749</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2367,19 +2367,19 @@
         <v>8215</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3174</v>
+        <v>4108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14289</v>
+        <v>15323</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1292148509275831</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04992160788629566</v>
+        <v>0.06462204089126315</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2247471831313919</v>
+        <v>0.2410222705700124</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>22447</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15153</v>
+        <v>14940</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31295</v>
+        <v>31603</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2794978928596886</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1886766811611039</v>
+        <v>0.1860190655337345</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.389662160467762</v>
+        <v>0.393507191752128</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2492,19 +2492,19 @@
         <v>25348</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17548</v>
+        <v>17092</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33952</v>
+        <v>33861</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.365946533836151</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2533384556420946</v>
+        <v>0.2467488475650853</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4901596765553888</v>
+        <v>0.4888418228937085</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -2513,19 +2513,19 @@
         <v>47795</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36549</v>
+        <v>36641</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>60430</v>
+        <v>61225</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.319530536610734</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2443427918976796</v>
+        <v>0.2449604795682782</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4040007459195064</v>
+        <v>0.4093149725380862</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>47327</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38258</v>
+        <v>38548</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55885</v>
+        <v>56899</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5892897295153668</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4763674507512554</v>
+        <v>0.4799787962870434</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6958484160374435</v>
+        <v>0.7084729016587548</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -2563,19 +2563,19 @@
         <v>36961</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28389</v>
+        <v>28973</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44948</v>
+        <v>45903</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5336020826006884</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4098557281393426</v>
+        <v>0.4182749675749738</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6489163356643552</v>
+        <v>0.6626944778261351</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>82</v>
@@ -2584,19 +2584,19 @@
         <v>84288</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>71337</v>
+        <v>71076</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95828</v>
+        <v>95744</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5635018894164542</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4769217361728229</v>
+        <v>0.4751754230345246</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6406494016082941</v>
+        <v>0.6400912202056013</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>10538</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5523</v>
+        <v>5619</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17387</v>
+        <v>17432</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1312123776249446</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06877143406409086</v>
+        <v>0.06996134785474899</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2164896173585256</v>
+        <v>0.2170502850521583</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2634,19 +2634,19 @@
         <v>6958</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2987</v>
+        <v>2943</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13040</v>
+        <v>13382</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1004513835631606</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04312776786104327</v>
+        <v>0.04248578448554922</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1882502394030165</v>
+        <v>0.1931886780165983</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -2655,19 +2655,19 @@
         <v>17496</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>11020</v>
+        <v>10547</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>27401</v>
+        <v>26311</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1169675739728119</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0736723469747629</v>
+        <v>0.07051264114401908</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1831903507312146</v>
+        <v>0.1759009177169798</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>33715</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25595</v>
+        <v>25710</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43196</v>
+        <v>43907</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3756761982543275</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2851935271822185</v>
+        <v>0.286477154266274</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4813164377619363</v>
+        <v>0.4892472486919487</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -2780,19 +2780,19 @@
         <v>20934</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14285</v>
+        <v>13608</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28654</v>
+        <v>28840</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3679141089408467</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2510637305690691</v>
+        <v>0.239159649566001</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5035972343208239</v>
+        <v>0.5068642050952155</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -2801,19 +2801,19 @@
         <v>54649</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42014</v>
+        <v>43645</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>66403</v>
+        <v>67199</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3726644429620968</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2865038494221024</v>
+        <v>0.297622766782214</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4528186613671045</v>
+        <v>0.4582489383965759</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>42885</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>33327</v>
+        <v>33406</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>52376</v>
+        <v>51616</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4778537552631916</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3713557373318038</v>
+        <v>0.3722375538498035</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5836082269048654</v>
+        <v>0.5751430281451619</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>28</v>
@@ -2851,19 +2851,19 @@
         <v>28300</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>20874</v>
+        <v>19587</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>35565</v>
+        <v>35599</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4973726377885227</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3668553921425506</v>
+        <v>0.3442485414812061</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.625061534160974</v>
+        <v>0.6256454283640536</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>68</v>
@@ -2872,19 +2872,19 @@
         <v>71185</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>59572</v>
+        <v>58368</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>83020</v>
+        <v>83314</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4854272442260147</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4062327645787328</v>
+        <v>0.3980221924396413</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5661362952277431</v>
+        <v>0.5681362828394272</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>13145</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7389</v>
+        <v>7400</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21733</v>
+        <v>21212</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.146470046482481</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0823366189264479</v>
+        <v>0.08245521780169858</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2421623485854784</v>
+        <v>0.2363566619431968</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2922,19 +2922,19 @@
         <v>7665</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3125</v>
+        <v>3692</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14765</v>
+        <v>15157</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1347132532706306</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05493029323754096</v>
+        <v>0.06488784206995898</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2594939354641712</v>
+        <v>0.266388460935329</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -2943,19 +2943,19 @@
         <v>20810</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13370</v>
+        <v>13270</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>30639</v>
+        <v>30161</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1419083128118885</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09117435514128129</v>
+        <v>0.09049297788177581</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2089362614620524</v>
+        <v>0.2056735242922837</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>133766</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>114358</v>
+        <v>117055</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>153228</v>
+        <v>154299</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3267953291188058</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2793801995965309</v>
+        <v>0.285969536936904</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3743404287150507</v>
+        <v>0.3769575226624368</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>104</v>
@@ -3068,19 +3068,19 @@
         <v>109496</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>93765</v>
+        <v>93438</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>126556</v>
+        <v>127155</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3699174464311785</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3167721727783087</v>
+        <v>0.3156651225304464</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.427552435019493</v>
+        <v>0.4295734753210846</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>233</v>
@@ -3089,19 +3089,19 @@
         <v>243263</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>219459</v>
+        <v>215940</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>267978</v>
+        <v>268421</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3448921286804566</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3111435896595147</v>
+        <v>0.3061546972233561</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3799330488566386</v>
+        <v>0.3805612752713329</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>218349</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>197952</v>
+        <v>198554</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>237980</v>
+        <v>238363</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5334331431278327</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4836022829528197</v>
+        <v>0.485073901592554</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5813922785524207</v>
+        <v>0.5823282495542014</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>141</v>
@@ -3139,19 +3139,19 @@
         <v>143085</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>126631</v>
+        <v>127650</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>162609</v>
+        <v>161263</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4833906273413048</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4278059427603758</v>
+        <v>0.4312474600113824</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.549350940204441</v>
+        <v>0.5448048634894723</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>352</v>
@@ -3160,19 +3160,19 @@
         <v>361434</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>336126</v>
+        <v>335616</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>388097</v>
+        <v>390486</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5124321015697527</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4765509706758362</v>
+        <v>0.4758289991410493</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5502349491889814</v>
+        <v>0.5536221714144495</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>57212</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44049</v>
+        <v>42870</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>73089</v>
+        <v>71848</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1397715277533616</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1076125568381665</v>
+        <v>0.1047337071628688</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1785591125203173</v>
+        <v>0.1755263075971692</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>42</v>
@@ -3210,19 +3210,19 @@
         <v>43421</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>31915</v>
+        <v>32754</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>56856</v>
+        <v>57030</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1466919262275166</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1078200847224752</v>
+        <v>0.1106534879474283</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1920801487515522</v>
+        <v>0.1926676151804067</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>99</v>
@@ -3231,19 +3231,19 @@
         <v>100634</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>84572</v>
+        <v>81974</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>119735</v>
+        <v>119573</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1426757697497907</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1199040877704737</v>
+        <v>0.1162203071023862</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1697572062908385</v>
+        <v>0.1695283327798379</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>32931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23487</v>
+        <v>23663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41810</v>
+        <v>43259</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3724789925821467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2656594843040022</v>
+        <v>0.267654421607115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4729108216981482</v>
+        <v>0.4892942666834275</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -3600,19 +3600,19 @@
         <v>20298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13282</v>
+        <v>13179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29158</v>
+        <v>30475</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3342287351716322</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2186975386844877</v>
+        <v>0.2170062600229107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4801025138706402</v>
+        <v>0.5017934662506058</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -3621,19 +3621,19 @@
         <v>53229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40874</v>
+        <v>40989</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65511</v>
+        <v>65584</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3569031291578029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.274061341437345</v>
+        <v>0.2748346148750943</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4392558498743268</v>
+        <v>0.4397405900548645</v>
       </c>
     </row>
     <row r="5">
@@ -3650,19 +3650,19 @@
         <v>37333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28527</v>
+        <v>28339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48195</v>
+        <v>47809</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4222723708240482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.322668530445772</v>
+        <v>0.3205409557542397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5451252204361199</v>
+        <v>0.5407665241644706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -3671,19 +3671,19 @@
         <v>30501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21232</v>
+        <v>21002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39174</v>
+        <v>39062</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5022247694133264</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3495938470753424</v>
+        <v>0.3458149336090461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6450243320986601</v>
+        <v>0.643185644771483</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -3692,19 +3692,19 @@
         <v>67834</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55443</v>
+        <v>54678</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82955</v>
+        <v>80918</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4548297371055355</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3717486465587334</v>
+        <v>0.3666196494283888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5562151821363688</v>
+        <v>0.5425543356508561</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>18146</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10409</v>
+        <v>10594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27119</v>
+        <v>28178</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.205248636593805</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1177303169342293</v>
+        <v>0.119827073390065</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.306746808614172</v>
+        <v>0.3187220232898459</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3742,19 +3742,19 @@
         <v>9933</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4927</v>
+        <v>4724</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18689</v>
+        <v>18870</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1635464954150414</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08112702485179636</v>
+        <v>0.07778021368066543</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3077336937081503</v>
+        <v>0.3107045113718989</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -3763,19 +3763,19 @@
         <v>28079</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17318</v>
+        <v>18203</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39853</v>
+        <v>39955</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1882671337366615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1161196543935749</v>
+        <v>0.1220514617447263</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2672169772325496</v>
+        <v>0.2679005268397768</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>18822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12359</v>
+        <v>11209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27214</v>
+        <v>27145</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1797184719568032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1180031899647606</v>
+        <v>0.1070283360902715</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2598425281530947</v>
+        <v>0.2591898512852127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3888,19 +3888,19 @@
         <v>17698</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10958</v>
+        <v>10587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26523</v>
+        <v>26295</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2681822261912392</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1660379371438519</v>
+        <v>0.1604257270244489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4019028412952272</v>
+        <v>0.3984462962283272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -3909,19 +3909,19 @@
         <v>36521</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26148</v>
+        <v>26947</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>49211</v>
+        <v>48737</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.213914344908141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1531571057731597</v>
+        <v>0.1578370805283326</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2882445240983986</v>
+        <v>0.2854712274039968</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>67899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57527</v>
+        <v>56674</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77869</v>
+        <v>77457</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6483223651098758</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5492791955390597</v>
+        <v>0.5411414490361928</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7435114490583971</v>
+        <v>0.7395805130337441</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>34</v>
@@ -3959,19 +3959,19 @@
         <v>38263</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30009</v>
+        <v>30107</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46336</v>
+        <v>47491</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5797921172178818</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4547226283795525</v>
+        <v>0.4562146332569971</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7021319975790289</v>
+        <v>0.7196267245622603</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>94</v>
@@ -3980,19 +3980,19 @@
         <v>106162</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>91793</v>
+        <v>92175</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>119428</v>
+        <v>119816</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6218318360732267</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5376666371542601</v>
+        <v>0.5399009533283283</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6995356879987433</v>
+        <v>0.7018092418866095</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>18009</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10274</v>
+        <v>10810</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27855</v>
+        <v>27861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.171959162933321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0980973161115349</v>
+        <v>0.1032177801128367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2659633104075492</v>
+        <v>0.2660251902184783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4030,19 +4030,19 @@
         <v>10033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5104</v>
+        <v>4912</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18466</v>
+        <v>17365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.152025656590879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07733860379043302</v>
+        <v>0.0744338261666523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2798135537773788</v>
+        <v>0.2631260311236399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4051,19 +4051,19 @@
         <v>28042</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18358</v>
+        <v>18501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39880</v>
+        <v>38775</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1642538190186323</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1075323264472395</v>
+        <v>0.1083668840299075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2335909795249136</v>
+        <v>0.2271213608388571</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>30640</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23645</v>
+        <v>23143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37704</v>
+        <v>37293</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6144379731841141</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4741805841348712</v>
+        <v>0.4640993227787132</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.756104038756378</v>
+        <v>0.7478689703825284</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -4176,19 +4176,19 @@
         <v>32207</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25020</v>
+        <v>25693</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38194</v>
+        <v>38400</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6764120750708076</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5254744858465793</v>
+        <v>0.5396078726706386</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8021502975354553</v>
+        <v>0.8064699230293011</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -4197,19 +4197,19 @@
         <v>62847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52994</v>
+        <v>53459</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72231</v>
+        <v>71876</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6447094801545686</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5436321890270551</v>
+        <v>0.5484031552661197</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7409721218552988</v>
+        <v>0.7373376978004661</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>16241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9915</v>
+        <v>10493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23108</v>
+        <v>24424</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3256829892840781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1988292270399921</v>
+        <v>0.2104305110668427</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4633958316276922</v>
+        <v>0.4897843420110964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4247,19 +4247,19 @@
         <v>10425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5283</v>
+        <v>5243</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17197</v>
+        <v>16714</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2189425124050633</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1109480478404968</v>
+        <v>0.1101178059786231</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3611700279626866</v>
+        <v>0.351027210173052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -4268,19 +4268,19 @@
         <v>26665</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19114</v>
+        <v>17811</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36072</v>
+        <v>35683</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2735451608766525</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1960816929364336</v>
+        <v>0.1827155710941581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3700389870170659</v>
+        <v>0.3660486051305066</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>2986</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7231</v>
+        <v>8116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05987903753180782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01797284322047235</v>
+        <v>0.01801216800353922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1450160490206951</v>
+        <v>0.1627620642751295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -4318,19 +4318,19 @@
         <v>4983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1885</v>
+        <v>1934</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10529</v>
+        <v>10399</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1046454125241291</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03959367136841904</v>
+        <v>0.04062517315193504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2211347095827146</v>
+        <v>0.218398556971324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -4339,19 +4339,19 @@
         <v>7969</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3721</v>
+        <v>3802</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15017</v>
+        <v>14184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08174535896877889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03817500576926776</v>
+        <v>0.0389978070418483</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1540465028368621</v>
+        <v>0.1455061199999423</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>20160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12738</v>
+        <v>12813</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29332</v>
+        <v>29005</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3351613743902481</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2117618116659341</v>
+        <v>0.213012234194504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4876390366396409</v>
+        <v>0.4822112737018913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -4464,19 +4464,19 @@
         <v>27765</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19717</v>
+        <v>20702</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36485</v>
+        <v>36777</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4117021879655248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2923649366034117</v>
+        <v>0.3069742657569474</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5410035051651934</v>
+        <v>0.5453270044898386</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -4485,19 +4485,19 @@
         <v>47925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37141</v>
+        <v>37995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59982</v>
+        <v>60592</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3756181380256406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2910935705005687</v>
+        <v>0.2977891206263605</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4701160471333952</v>
+        <v>0.4748962326224364</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>27498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19011</v>
+        <v>18593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35690</v>
+        <v>35857</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4571476187772581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3160474739852481</v>
+        <v>0.3091012868326776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5933469518205872</v>
+        <v>0.5961159597379706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -4535,19 +4535,19 @@
         <v>31915</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23119</v>
+        <v>23522</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40572</v>
+        <v>39868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4732335522001525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3428128501032247</v>
+        <v>0.348791508969363</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6016037095967137</v>
+        <v>0.591162670083493</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -4556,19 +4556,19 @@
         <v>59412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47844</v>
+        <v>47279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>70797</v>
+        <v>70573</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4656500735585189</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3749827157312081</v>
+        <v>0.3705568670204392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5548752215813528</v>
+        <v>0.5531193731244375</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>12493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6330</v>
+        <v>6624</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20660</v>
+        <v>20767</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2076910068324938</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.105242285016871</v>
+        <v>0.110116187938301</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3434742438677583</v>
+        <v>0.3452499466612375</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -4606,19 +4606,19 @@
         <v>7760</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3117</v>
+        <v>3672</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13729</v>
+        <v>14611</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1150642598343227</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0462192225193189</v>
+        <v>0.05444519741563558</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2035787583768239</v>
+        <v>0.216652218503757</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -4627,19 +4627,19 @@
         <v>20253</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12558</v>
+        <v>13149</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30428</v>
+        <v>30485</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1587317884158405</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0984265909440243</v>
+        <v>0.1030556730808484</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.238479570935149</v>
+        <v>0.2389278107533495</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>16404</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9942</v>
+        <v>9932</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23738</v>
+        <v>23554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3337325551156998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2022622462802514</v>
+        <v>0.2020548870161104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4829406110137855</v>
+        <v>0.4791910481912904</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -4752,19 +4752,19 @@
         <v>13555</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8493</v>
+        <v>8428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19948</v>
+        <v>19641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3883841584877952</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2433553613124755</v>
+        <v>0.241496824695708</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5715557742015017</v>
+        <v>0.5627725685006295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -4773,19 +4773,19 @@
         <v>29959</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21624</v>
+        <v>21344</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39574</v>
+        <v>38505</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3564251119664341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2572599111652852</v>
+        <v>0.25393725035228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4708154448109185</v>
+        <v>0.4581041674106001</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>22477</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15570</v>
+        <v>15456</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30010</v>
+        <v>30361</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4572821997361395</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3167714179594912</v>
+        <v>0.3144449122193775</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6105461584705504</v>
+        <v>0.6176824339408461</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -4823,19 +4823,19 @@
         <v>14391</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8173</v>
+        <v>8577</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19919</v>
+        <v>20540</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4123250077441734</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2341840727963559</v>
+        <v>0.2457509072738884</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.570723299913966</v>
+        <v>0.5885256645965112</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>35</v>
@@ -4844,19 +4844,19 @@
         <v>36867</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>26972</v>
+        <v>28248</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46203</v>
+        <v>46213</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4386149773276571</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.32089374938623</v>
+        <v>0.3360681009501467</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5496824617454275</v>
+        <v>0.5498053767231852</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>10272</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4940</v>
+        <v>4601</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17722</v>
+        <v>17371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2089852451481606</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1005099477694063</v>
+        <v>0.09359971745179321</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3605521347457782</v>
+        <v>0.3533979589330005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4894,19 +4894,19 @@
         <v>6955</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2973</v>
+        <v>2943</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12339</v>
+        <v>12745</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1992908337680314</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0851770904172095</v>
+        <v>0.08431025721896035</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3535521440909731</v>
+        <v>0.365178556364694</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4915,19 +4915,19 @@
         <v>17228</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11115</v>
+        <v>10794</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25644</v>
+        <v>25708</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2049599107059087</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1322369203307866</v>
+        <v>0.1284177830359847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3050895581087675</v>
+        <v>0.305854885734015</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>23921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16739</v>
+        <v>16500</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30859</v>
+        <v>30426</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5294739064532997</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3704929705094768</v>
+        <v>0.3652231067040464</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6830295559663079</v>
+        <v>0.673455541691649</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -5040,19 +5040,19 @@
         <v>18402</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11944</v>
+        <v>11866</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24765</v>
+        <v>24177</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4826726296517584</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3132858242542368</v>
+        <v>0.3112407725960658</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6495756177247515</v>
+        <v>0.634148363284324</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -5061,19 +5061,19 @@
         <v>42323</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33090</v>
+        <v>33319</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51197</v>
+        <v>52150</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5080549015157364</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3972159786058299</v>
+        <v>0.3999646418138129</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6145791939530939</v>
+        <v>0.6260227866272106</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>17111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11009</v>
+        <v>11264</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24725</v>
+        <v>25349</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3787444860658408</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2436818507511774</v>
+        <v>0.249318607330814</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5472770099409818</v>
+        <v>0.5610774950579362</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -5111,19 +5111,19 @@
         <v>13502</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7964</v>
+        <v>8055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20384</v>
+        <v>20241</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3541570277701016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2088825596086943</v>
+        <v>0.2112683391662408</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5346621436919324</v>
+        <v>0.5309012961513458</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -5132,19 +5132,19 @@
         <v>30614</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22657</v>
+        <v>22267</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40850</v>
+        <v>40794</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3674918253131917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2719818747494748</v>
+        <v>0.2672975337200624</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4903776160310805</v>
+        <v>0.4896999427926143</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>4147</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8819</v>
+        <v>8745</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09178160748085946</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02268803896798414</v>
+        <v>0.02309520741279579</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1951958464926309</v>
+        <v>0.1935711724485298</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -5182,19 +5182,19 @@
         <v>6221</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2221</v>
+        <v>2755</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11713</v>
+        <v>12740</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.16317034257814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05825912258938371</v>
+        <v>0.07227507450226089</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3072304111410968</v>
+        <v>0.3341654556998525</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -5203,19 +5203,19 @@
         <v>10367</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5283</v>
+        <v>5644</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18789</v>
+        <v>18024</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1244532731710718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06341874018860182</v>
+        <v>0.06775630125447514</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2255448825960846</v>
+        <v>0.2163586096805132</v>
       </c>
     </row>
     <row r="27">
@@ -5307,19 +5307,19 @@
         <v>44867</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33564</v>
+        <v>34941</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55816</v>
+        <v>56807</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4172949880156844</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3121640780751584</v>
+        <v>0.3249736227225417</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5191253461979213</v>
+        <v>0.5283395518143835</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -5328,19 +5328,19 @@
         <v>45865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>36352</v>
+        <v>35591</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>55494</v>
+        <v>55960</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4855448067279716</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3848382426803136</v>
+        <v>0.376783128090761</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5874824050910328</v>
+        <v>0.5924170286941011</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>85</v>
@@ -5349,19 +5349,19 @@
         <v>90732</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>75598</v>
+        <v>76164</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>105083</v>
+        <v>107417</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4492134828480918</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3742870721069169</v>
+        <v>0.3770890179115588</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5202665002690963</v>
+        <v>0.531824798776932</v>
       </c>
     </row>
     <row r="29">
@@ -5378,19 +5378,19 @@
         <v>54706</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>43148</v>
+        <v>44214</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>65412</v>
+        <v>65447</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5088070527814457</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4013072805155402</v>
+        <v>0.4112219078881762</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6083762005003281</v>
+        <v>0.6087034754106032</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -5399,19 +5399,19 @@
         <v>34160</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26149</v>
+        <v>24588</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44436</v>
+        <v>43951</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3616342601035109</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2768277072354426</v>
+        <v>0.2602990855719653</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4704244878430668</v>
+        <v>0.4652893489834887</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>81</v>
@@ -5420,19 +5420,19 @@
         <v>88866</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>73816</v>
+        <v>73977</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>104301</v>
+        <v>103664</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.43997853263014</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3654630444115115</v>
+        <v>0.3662608978995012</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5163965401776415</v>
+        <v>0.5132399443525757</v>
       </c>
     </row>
     <row r="30">
@@ -5449,19 +5449,19 @@
         <v>7945</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3714</v>
+        <v>3078</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16139</v>
+        <v>15415</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07389795920286991</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03454113326734808</v>
+        <v>0.0286319396931641</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1501050435698025</v>
+        <v>0.1433741424751311</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -5470,19 +5470,19 @@
         <v>14435</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7877</v>
+        <v>8004</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>22810</v>
+        <v>23471</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1528209331685175</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08339325784571815</v>
+        <v>0.08473186245127132</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2414792838443759</v>
+        <v>0.2484791888038352</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -5491,19 +5491,19 @@
         <v>22381</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13153</v>
+        <v>14018</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33616</v>
+        <v>34611</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1108079845217682</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06512310118194484</v>
+        <v>0.0694018480804099</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1664336877011511</v>
+        <v>0.1713588265747426</v>
       </c>
     </row>
     <row r="31">
@@ -5595,19 +5595,19 @@
         <v>52373</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>41672</v>
+        <v>41338</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>63867</v>
+        <v>63338</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4543803975122777</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3615394747365668</v>
+        <v>0.3586393132662488</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5541019747940064</v>
+        <v>0.5495055812497233</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>43</v>
@@ -5616,19 +5616,19 @@
         <v>46758</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37416</v>
+        <v>37246</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>55563</v>
+        <v>55862</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5865589619334499</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4693672057124323</v>
+        <v>0.4672312970273225</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6970126553996318</v>
+        <v>0.700761118613462</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>93</v>
@@ -5637,19 +5637,19 @@
         <v>99132</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>84281</v>
+        <v>83621</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>113628</v>
+        <v>113085</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.508420840054405</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4322539481050794</v>
+        <v>0.4288702896981442</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5827658665198393</v>
+        <v>0.5799838862965717</v>
       </c>
     </row>
     <row r="33">
@@ -5666,19 +5666,19 @@
         <v>55554</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>43996</v>
+        <v>44308</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>66215</v>
+        <v>66726</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4819743326737149</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3816991198677903</v>
+        <v>0.3844058522862026</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5744664277118537</v>
+        <v>0.5789010845925333</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>26</v>
@@ -5687,19 +5687,19 @@
         <v>28917</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>20311</v>
+        <v>20072</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>37639</v>
+        <v>38074</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3627476395594185</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2547870855429241</v>
+        <v>0.2517959356718672</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4721626983209567</v>
+        <v>0.4776224919521486</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>76</v>
@@ -5708,19 +5708,19 @@
         <v>84471</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>70579</v>
+        <v>70961</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>99443</v>
+        <v>99175</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4332291878997039</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3619828128741865</v>
+        <v>0.3639399786651742</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5100141911317226</v>
+        <v>0.5086433178147624</v>
       </c>
     </row>
     <row r="34">
@@ -5737,19 +5737,19 @@
         <v>7336</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3024</v>
+        <v>3103</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14639</v>
+        <v>16305</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06364526981400735</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0262386401696585</v>
+        <v>0.02692413101873949</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1270076880958815</v>
+        <v>0.1414614884614749</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -5758,19 +5758,19 @@
         <v>4041</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1070</v>
+        <v>1012</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9487</v>
+        <v>9338</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05069339850713161</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01341772485364164</v>
+        <v>0.01269825869454622</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1190157875268927</v>
+        <v>0.1171403203455083</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -5779,19 +5779,19 @@
         <v>11377</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5940</v>
+        <v>5122</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>21040</v>
+        <v>20180</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05834997204589108</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03046518908636439</v>
+        <v>0.02626780665713778</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.107908068762825</v>
+        <v>0.1034984903629632</v>
       </c>
     </row>
     <row r="35">
@@ -5883,19 +5883,19 @@
         <v>240119</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>215106</v>
+        <v>214245</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>265324</v>
+        <v>267626</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.387117933726461</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3467927825103572</v>
+        <v>0.3454050790594896</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4277534387790796</v>
+        <v>0.4314645460506028</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>206</v>
@@ -5904,19 +5904,19 @@
         <v>222549</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>200998</v>
+        <v>201051</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>246460</v>
+        <v>245058</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4551261216259911</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.411052678150856</v>
+        <v>0.4111610251533833</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5040247500504481</v>
+        <v>0.5011592748814391</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>433</v>
@@ -5925,19 +5925,19 @@
         <v>462668</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>428431</v>
+        <v>429292</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>497594</v>
+        <v>496054</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4170973709992102</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3862327100154795</v>
+        <v>0.3870085012873993</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.448583446896749</v>
+        <v>0.4471950505643372</v>
       </c>
     </row>
     <row r="37">
@@ -5954,19 +5954,19 @@
         <v>298820</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>273763</v>
+        <v>273044</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>325978</v>
+        <v>324755</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4817550852355855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4413587534125671</v>
+        <v>0.4401989963695129</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5255402342807131</v>
+        <v>0.5235678336788262</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>184</v>
@@ -5975,19 +5975,19 @@
         <v>202073</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>178243</v>
+        <v>180045</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>223504</v>
+        <v>223875</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4132522181000173</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3645184995950032</v>
+        <v>0.3682036463983131</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4570802721936963</v>
+        <v>0.4578378688666523</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>457</v>
@@ -5996,19 +5996,19 @@
         <v>500893</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>469824</v>
+        <v>466765</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>536079</v>
+        <v>536459</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4515575829682382</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4235484307030039</v>
+        <v>0.420790766099661</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4832781757849252</v>
+        <v>0.4836209523534279</v>
       </c>
     </row>
     <row r="38">
@@ -6025,19 +6025,19 @@
         <v>81335</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>64234</v>
+        <v>65487</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>101527</v>
+        <v>102590</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1311269810379536</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1035577990356174</v>
+        <v>0.1055775134454515</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1636816004963403</v>
+        <v>0.1653950779251201</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>59</v>
@@ -6046,19 +6046,19 @@
         <v>64361</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>50674</v>
+        <v>47498</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>82713</v>
+        <v>79183</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1316216602739916</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1036309769762696</v>
+        <v>0.09713631261415327</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1691524556079846</v>
+        <v>0.1619346797863311</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>128</v>
@@ -6067,19 +6067,19 @@
         <v>145695</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>121817</v>
+        <v>122673</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>170893</v>
+        <v>170243</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1313450460325516</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1098188545949616</v>
+        <v>0.1105900902662017</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1540613236831399</v>
+        <v>0.1534744950713539</v>
       </c>
     </row>
     <row r="39">
@@ -6415,19 +6415,19 @@
         <v>20774</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13223</v>
+        <v>13078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29711</v>
+        <v>28727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3164124552177161</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2013976991716157</v>
+        <v>0.1991838061219253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4525324523627516</v>
+        <v>0.4375438658393737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6436,19 +6436,19 @@
         <v>16185</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9890</v>
+        <v>10301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22688</v>
+        <v>22919</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3864339722949928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2361406167049844</v>
+        <v>0.2459438071805087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5417024925889568</v>
+        <v>0.547225335886639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -6457,19 +6457,19 @@
         <v>36959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27425</v>
+        <v>27363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47269</v>
+        <v>48245</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.343683815736912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2550264353904091</v>
+        <v>0.2544507751014151</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4395561558376714</v>
+        <v>0.4486249888139004</v>
       </c>
     </row>
     <row r="5">
@@ -6486,19 +6486,19 @@
         <v>34028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25437</v>
+        <v>25576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42704</v>
+        <v>41520</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5182806941456264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3874283893562532</v>
+        <v>0.3895515024986369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6504158163925675</v>
+        <v>0.6323876051632218</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -6507,19 +6507,19 @@
         <v>22847</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16181</v>
+        <v>16578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29379</v>
+        <v>29361</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5455034002242056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3863417120210564</v>
+        <v>0.3958279347851016</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7014483821222444</v>
+        <v>0.7010167033008542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -6528,19 +6528,19 @@
         <v>56876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>46993</v>
+        <v>45641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67283</v>
+        <v>66995</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5288831526864448</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4369900826655407</v>
+        <v>0.4244128660896438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6256579977688155</v>
+        <v>0.6229790361882781</v>
       </c>
     </row>
     <row r="6">
@@ -6557,19 +6557,19 @@
         <v>10853</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5801</v>
+        <v>5658</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17902</v>
+        <v>17768</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1653068506366575</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08836009598822576</v>
+        <v>0.0861692438912427</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2726562840915284</v>
+        <v>0.2706232626437997</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6578,19 +6578,19 @@
         <v>2851</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>894</v>
+        <v>864</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7756</v>
+        <v>7131</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06806262748080166</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02134026513970216</v>
+        <v>0.02063019181546418</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1851728096946321</v>
+        <v>0.1702643139808758</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -6599,19 +6599,19 @@
         <v>13704</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7894</v>
+        <v>8482</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21031</v>
+        <v>20832</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1274330315766432</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07340983491245955</v>
+        <v>0.07887139937986158</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1955657617198612</v>
+        <v>0.1937139317577026</v>
       </c>
     </row>
     <row r="7">
@@ -6703,19 +6703,19 @@
         <v>4401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10097</v>
+        <v>9801</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1101158491315788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02846133630109116</v>
+        <v>0.02855425328716968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2526429339441755</v>
+        <v>0.2452338223153681</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -6724,19 +6724,19 @@
         <v>7305</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3308</v>
+        <v>3144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13606</v>
+        <v>12909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1957058105481425</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08862170131203445</v>
+        <v>0.08422448940207501</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.364498060895537</v>
+        <v>0.3458298593299957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -6745,19 +6745,19 @@
         <v>11706</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6292</v>
+        <v>6325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19269</v>
+        <v>19066</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1514504067397016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08140663020213036</v>
+        <v>0.08183665304497836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2493003757139826</v>
+        <v>0.2466803620079207</v>
       </c>
     </row>
     <row r="9">
@@ -6774,19 +6774,19 @@
         <v>30443</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23526</v>
+        <v>24232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>34816</v>
+        <v>34931</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.761752026703322</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5886550926218984</v>
+        <v>0.6063335431832722</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8711509595385373</v>
+        <v>0.8740399620135603</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -6795,19 +6795,19 @@
         <v>19545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13839</v>
+        <v>13668</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25684</v>
+        <v>25913</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.523628213445991</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3707384360454258</v>
+        <v>0.3661813228493769</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6880938894161487</v>
+        <v>0.6942046503275174</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>46</v>
@@ -6816,19 +6816,19 @@
         <v>49988</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>41382</v>
+        <v>41248</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58321</v>
+        <v>57555</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6467532311197289</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5354102083371906</v>
+        <v>0.5336737805793602</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7545616087843545</v>
+        <v>0.7446474327951121</v>
       </c>
     </row>
     <row r="10">
@@ -6845,19 +6845,19 @@
         <v>5121</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1991</v>
+        <v>1880</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10452</v>
+        <v>10596</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1281321241650993</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04982528260066847</v>
+        <v>0.04705004935639085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2615221705729059</v>
+        <v>0.2651436667220881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -6866,19 +6866,19 @@
         <v>10476</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5942</v>
+        <v>5817</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16215</v>
+        <v>16584</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2806659760058666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1591773326075881</v>
+        <v>0.1558431515219302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4344108057503654</v>
+        <v>0.4442909151794446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -6887,19 +6887,19 @@
         <v>15597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9109</v>
+        <v>9106</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23420</v>
+        <v>23657</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2017963621405695</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1178481971091502</v>
+        <v>0.1178115183213722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3030095633435436</v>
+        <v>0.3060780571064812</v>
       </c>
     </row>
     <row r="11">
@@ -6991,19 +6991,19 @@
         <v>10170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5571</v>
+        <v>5586</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15932</v>
+        <v>16008</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.288083133333336</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1578191325917822</v>
+        <v>0.1582513397609689</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4513209661939888</v>
+        <v>0.4534782248043584</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -7012,19 +7012,19 @@
         <v>12608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7095</v>
+        <v>7317</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19243</v>
+        <v>18967</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3138131876810125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1766068403286453</v>
+        <v>0.1821304291014582</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4789792940604498</v>
+        <v>0.4720992743726798</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -7033,19 +7033,19 @@
         <v>22777</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15752</v>
+        <v>15590</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31425</v>
+        <v>30826</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3017791362043138</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2086975098789824</v>
+        <v>0.2065560211115246</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4163470819294308</v>
+        <v>0.4084193772164753</v>
       </c>
     </row>
     <row r="13">
@@ -7062,19 +7062,19 @@
         <v>18435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12424</v>
+        <v>12302</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23834</v>
+        <v>23813</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5222341902135031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3519530957315977</v>
+        <v>0.3484957712598797</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6751651870911479</v>
+        <v>0.6745702678259186</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -7083,19 +7083,19 @@
         <v>18911</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12830</v>
+        <v>12285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25729</v>
+        <v>25293</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4707005447567688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3193380327388635</v>
+        <v>0.3057878538596552</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6403971699777672</v>
+        <v>0.6295631071829892</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -7104,19 +7104,19 @@
         <v>37346</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28545</v>
+        <v>28746</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45382</v>
+        <v>45631</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4948030411537219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3781949947668107</v>
+        <v>0.3808539897291789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6012668230336263</v>
+        <v>0.6045732147374715</v>
       </c>
     </row>
     <row r="14">
@@ -7133,19 +7133,19 @@
         <v>6696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2871</v>
+        <v>2932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12110</v>
+        <v>12242</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1896826764531609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0813405602975997</v>
+        <v>0.08306343955092554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.343050906806413</v>
+        <v>0.3467968291851512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -7154,19 +7154,19 @@
         <v>8657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4057</v>
+        <v>4054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15063</v>
+        <v>14893</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2154862675622186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1009906642752541</v>
+        <v>0.10091740870971</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3749372560270361</v>
+        <v>0.3707042672126469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -7175,19 +7175,19 @@
         <v>15353</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9252</v>
+        <v>9459</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22949</v>
+        <v>23124</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2034178226419643</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1225772721665092</v>
+        <v>0.1253243493515295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3040592437618919</v>
+        <v>0.3063691133109322</v>
       </c>
     </row>
     <row r="15">
@@ -7279,19 +7279,19 @@
         <v>36278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27804</v>
+        <v>26923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46334</v>
+        <v>46979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4105148961435386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3146301628731906</v>
+        <v>0.304650796699544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5243021514598931</v>
+        <v>0.5316102852977097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -7300,19 +7300,19 @@
         <v>20681</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14120</v>
+        <v>13666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29628</v>
+        <v>28820</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3708907238088712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2532308648835752</v>
+        <v>0.2450772129791572</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5313332458410319</v>
+        <v>0.5168464344609058</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>54</v>
@@ -7321,19 +7321,19 @@
         <v>56959</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45201</v>
+        <v>45014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69095</v>
+        <v>69744</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3951854171786428</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3136094025742615</v>
+        <v>0.3123091970356922</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4793892942938777</v>
+        <v>0.4838881495015667</v>
       </c>
     </row>
     <row r="17">
@@ -7350,19 +7350,19 @@
         <v>35443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25869</v>
+        <v>25451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44290</v>
+        <v>44565</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4010617865754056</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2927295377315019</v>
+        <v>0.287997790276012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5011820014191644</v>
+        <v>0.5042941790947645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -7371,19 +7371,19 @@
         <v>21219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13907</v>
+        <v>14287</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28478</v>
+        <v>28950</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3805411854899998</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.249407263882524</v>
+        <v>0.2562232853311446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5107138089961839</v>
+        <v>0.5191845608576151</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -7392,19 +7392,19 @@
         <v>56662</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44539</v>
+        <v>44470</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>70172</v>
+        <v>68674</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3931229425781386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3090151878844132</v>
+        <v>0.3085351365817489</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4868625244928242</v>
+        <v>0.476465805377236</v>
       </c>
     </row>
     <row r="18">
@@ -7421,19 +7421,19 @@
         <v>16651</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10242</v>
+        <v>10213</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25658</v>
+        <v>25097</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1884233172810557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1158923482283788</v>
+        <v>0.1155640947221993</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2903429684622958</v>
+        <v>0.2839967160539502</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -7442,19 +7442,19 @@
         <v>13860</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7237</v>
+        <v>7931</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21546</v>
+        <v>21938</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.248568090701129</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.129784790063011</v>
+        <v>0.142230134756394</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3863975259325461</v>
+        <v>0.3934341150114574</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -7463,19 +7463,19 @@
         <v>30512</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21037</v>
+        <v>21151</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41639</v>
+        <v>42248</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2116916402432186</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1459542489102061</v>
+        <v>0.1467468946937481</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2888949711063472</v>
+        <v>0.2931225059697916</v>
       </c>
     </row>
     <row r="19">
@@ -7567,19 +7567,19 @@
         <v>5377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1964</v>
+        <v>1940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11553</v>
+        <v>10473</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1334002401505332</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04872487892579632</v>
+        <v>0.04813504193056569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2866343369985133</v>
+        <v>0.2598215419751551</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -7588,19 +7588,19 @@
         <v>2650</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7083</v>
+        <v>7032</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08844621615069957</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02780899456574779</v>
+        <v>0.02822069748110307</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2364162712278616</v>
+        <v>0.2346892762818049</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -7609,19 +7609,19 @@
         <v>8027</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3453</v>
+        <v>3802</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14813</v>
+        <v>15052</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1142324024134296</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04914561680111625</v>
+        <v>0.05410544351880556</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.210813018794022</v>
+        <v>0.2142044350070024</v>
       </c>
     </row>
     <row r="21">
@@ -7638,19 +7638,19 @@
         <v>29684</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22841</v>
+        <v>23817</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34406</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7364378213415748</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5666726046525142</v>
+        <v>0.5908776195669732</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.853590612961235</v>
+        <v>0.8711184451776738</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -7659,19 +7659,19 @@
         <v>21091</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15612</v>
+        <v>15350</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25556</v>
+        <v>25033</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7039402350979489</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5210853968248027</v>
+        <v>0.5123203525664134</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8529864350448803</v>
+        <v>0.835532084694123</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -7680,19 +7680,19 @@
         <v>50774</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>42754</v>
+        <v>42986</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>57798</v>
+        <v>57930</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7225812540191998</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6084457917717792</v>
+        <v>0.6117404830153168</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8225317807384018</v>
+        <v>0.8244106245016284</v>
       </c>
     </row>
     <row r="22">
@@ -7709,19 +7709,19 @@
         <v>5246</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1961</v>
+        <v>2020</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10325</v>
+        <v>11050</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.130161938507892</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04864084568782587</v>
+        <v>0.05011068738847028</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.256169955533188</v>
+        <v>0.2741528949494309</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -7730,19 +7730,19 @@
         <v>6220</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2622</v>
+        <v>2670</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11167</v>
+        <v>11399</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2076135487513515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08750194347771505</v>
+        <v>0.08912987375886688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3727138428320884</v>
+        <v>0.3804710309148948</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -7751,19 +7751,19 @@
         <v>11467</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6478</v>
+        <v>6127</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18177</v>
+        <v>18231</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1631863435673706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09218932164405641</v>
+        <v>0.08719179532408855</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2586793502513478</v>
+        <v>0.2594496877794938</v>
       </c>
     </row>
     <row r="23">
@@ -7855,19 +7855,19 @@
         <v>4855</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1828</v>
+        <v>1917</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9705</v>
+        <v>9844</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1185637202932496</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04464775105704225</v>
+        <v>0.04682514271016307</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2370220717328983</v>
+        <v>0.2404169661603155</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -7876,19 +7876,19 @@
         <v>5574</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2522</v>
+        <v>2553</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10358</v>
+        <v>10446</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2470860799718992</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1118185646325008</v>
+        <v>0.1131781744416924</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4591594828895243</v>
+        <v>0.4630596641963241</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -7897,19 +7897,19 @@
         <v>10429</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5371</v>
+        <v>5690</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16750</v>
+        <v>17101</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1642174483846784</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08457376372499244</v>
+        <v>0.0896053642028866</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2637559742666533</v>
+        <v>0.2692880041034995</v>
       </c>
     </row>
     <row r="25">
@@ -7926,19 +7926,19 @@
         <v>27177</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20777</v>
+        <v>20862</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32446</v>
+        <v>32541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6637110442408178</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.507401264811884</v>
+        <v>0.5094815311516425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7923884585137241</v>
+        <v>0.7947146001506364</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -7947,19 +7947,19 @@
         <v>13990</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8435</v>
+        <v>8866</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17805</v>
+        <v>18265</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6201835243561656</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3739268744641348</v>
+        <v>0.3930208796933861</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7892838920086623</v>
+        <v>0.8097073937744262</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -7968,19 +7968,19 @@
         <v>41167</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32731</v>
+        <v>33813</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>48097</v>
+        <v>48201</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6482491933825171</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5154106836724852</v>
+        <v>0.5324461626119356</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.757381099235122</v>
+        <v>0.7590183182023998</v>
       </c>
     </row>
     <row r="26">
@@ -7997,19 +7997,19 @@
         <v>8915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4746</v>
+        <v>4388</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14798</v>
+        <v>14650</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2177252354659326</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1159014660690353</v>
+        <v>0.1071602559397152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3613999208265162</v>
+        <v>0.3577794679006606</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -8018,19 +8018,19 @@
         <v>2994</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7918</v>
+        <v>7442</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1327303956719352</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04128229820240797</v>
+        <v>0.04112597247391322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3510087834131626</v>
+        <v>0.3299142549621759</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -8039,19 +8039,19 @@
         <v>11909</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6036</v>
+        <v>6835</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18712</v>
+        <v>18067</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1875333582328046</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09504704754981316</v>
+        <v>0.1076253630355517</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2946506885862107</v>
+        <v>0.2844958501422898</v>
       </c>
     </row>
     <row r="27">
@@ -8143,19 +8143,19 @@
         <v>18246</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11317</v>
+        <v>11303</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>27371</v>
+        <v>26335</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2643360431419396</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1639498061148088</v>
+        <v>0.1637550096442279</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.396536702939475</v>
+        <v>0.3815259707452845</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -8164,19 +8164,19 @@
         <v>24509</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16536</v>
+        <v>16981</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33085</v>
+        <v>32183</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3972156071609007</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.267995457528995</v>
+        <v>0.2752090189746329</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5362123007508571</v>
+        <v>0.5215947897006372</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -8185,19 +8185,19 @@
         <v>42755</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>31808</v>
+        <v>32647</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>54418</v>
+        <v>54119</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3270534531246198</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2433113585581194</v>
+        <v>0.2497329572432391</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4162683247190345</v>
+        <v>0.4139825920666217</v>
       </c>
     </row>
     <row r="29">
@@ -8214,19 +8214,19 @@
         <v>33243</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24801</v>
+        <v>23966</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42802</v>
+        <v>42358</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4816038580928876</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3593059952932785</v>
+        <v>0.3471971214831951</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6200792049566138</v>
+        <v>0.6136477438936611</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>29</v>
@@ -8235,19 +8235,19 @@
         <v>30344</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22140</v>
+        <v>22306</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39079</v>
+        <v>37733</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4917788580889842</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3588218188635502</v>
+        <v>0.3615076822716427</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6333493210429879</v>
+        <v>0.6115425123622139</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>56</v>
@@ -8256,19 +8256,19 @@
         <v>63587</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50714</v>
+        <v>50722</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>75031</v>
+        <v>75606</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.486406324529622</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3879329575177921</v>
+        <v>0.3879971729578741</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5739485915178999</v>
+        <v>0.5783422590718863</v>
       </c>
     </row>
     <row r="30">
@@ -8285,19 +8285,19 @@
         <v>17537</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10760</v>
+        <v>10792</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26674</v>
+        <v>27665</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2540600987651728</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1558787439471341</v>
+        <v>0.1563482603578077</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3864283260517886</v>
+        <v>0.4007848109635186</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -8306,19 +8306,19 @@
         <v>6849</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2981</v>
+        <v>2647</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13584</v>
+        <v>13507</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1110055347501151</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04831942864696143</v>
+        <v>0.04290198491800815</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2201492849127125</v>
+        <v>0.2189013314451419</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -8327,19 +8327,19 @@
         <v>24386</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>15964</v>
+        <v>15859</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35581</v>
+        <v>35692</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1865402223457582</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1221124001371389</v>
+        <v>0.1213098518466714</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2721758923711106</v>
+        <v>0.2730237021806441</v>
       </c>
     </row>
     <row r="31">
@@ -8431,19 +8431,19 @@
         <v>31082</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21952</v>
+        <v>21155</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>41869</v>
+        <v>41826</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2606022099851508</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1840559135866575</v>
+        <v>0.1773743065193217</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3510453840873764</v>
+        <v>0.3506840609109169</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -8452,19 +8452,19 @@
         <v>34200</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25108</v>
+        <v>25162</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43567</v>
+        <v>44280</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3167066565927865</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2325057540381517</v>
+        <v>0.2330110942363483</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4034424122173266</v>
+        <v>0.410046462286474</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>61</v>
@@ -8473,19 +8473,19 @@
         <v>65282</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>52855</v>
+        <v>50849</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>80295</v>
+        <v>78631</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2872617056927721</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2325794947169718</v>
+        <v>0.2237503570676455</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3533231200896268</v>
+        <v>0.3460009587848173</v>
       </c>
     </row>
     <row r="33">
@@ -8502,19 +8502,19 @@
         <v>64437</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>52881</v>
+        <v>51847</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>75357</v>
+        <v>75780</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5402632924416888</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4433726509416836</v>
+        <v>0.4347079060200817</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6318242681916191</v>
+        <v>0.6353723329653547</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>56</v>
@@ -8523,19 +8523,19 @@
         <v>59164</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>48946</v>
+        <v>48822</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>69203</v>
+        <v>69341</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5478776816735669</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4532544155243294</v>
+        <v>0.4521138979134543</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6408437240226807</v>
+        <v>0.642122451184866</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>119</v>
@@ -8544,19 +8544,19 @@
         <v>123600</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>109750</v>
+        <v>108509</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>138393</v>
+        <v>139151</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5438814687060953</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4829354930475954</v>
+        <v>0.4774732032910026</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.60897205532635</v>
+        <v>0.6123114492075644</v>
       </c>
     </row>
     <row r="34">
@@ -8573,19 +8573,19 @@
         <v>23751</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15536</v>
+        <v>15785</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33424</v>
+        <v>33913</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1991344975731604</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1302571741056102</v>
+        <v>0.1323470039710236</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2802394279057452</v>
+        <v>0.2843406619491836</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -8594,19 +8594,19 @@
         <v>14623</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8757</v>
+        <v>8719</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23482</v>
+        <v>24038</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1354156617336466</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08109518260582683</v>
+        <v>0.08074356002849235</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.217448447244747</v>
+        <v>0.2225993404860574</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>36</v>
@@ -8615,19 +8615,19 @@
         <v>38374</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28059</v>
+        <v>28126</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>51041</v>
+        <v>50646</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1688568256011325</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1234701536552896</v>
+        <v>0.1237637475352276</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2245960888753657</v>
+        <v>0.2228580438942245</v>
       </c>
     </row>
     <row r="35">
@@ -8719,19 +8719,19 @@
         <v>131182</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>109343</v>
+        <v>112724</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>150187</v>
+        <v>151505</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.262973519865515</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2191938148241854</v>
+        <v>0.2259719875164632</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3010712683413113</v>
+        <v>0.3037134067406382</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>120</v>
@@ -8740,19 +8740,19 @@
         <v>123712</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>106473</v>
+        <v>105949</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>141557</v>
+        <v>142971</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3113385587325899</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.267954135870157</v>
+        <v>0.2666353516332444</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.356248512328872</v>
+        <v>0.359806262175597</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>242</v>
@@ -8761,19 +8761,19 @@
         <v>254894</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>229026</v>
+        <v>230258</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>283538</v>
+        <v>284553</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2844175848678292</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.255553557273012</v>
+        <v>0.2569276754903057</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3163790141808084</v>
+        <v>0.3175121570117327</v>
       </c>
     </row>
     <row r="37">
@@ -8790,19 +8790,19 @@
         <v>272889</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>250237</v>
+        <v>249478</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>298171</v>
+        <v>294065</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5470457858524181</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5016364027995303</v>
+        <v>0.5001142926114276</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5977272614334412</v>
+        <v>0.5894961801977786</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>201</v>
@@ -8811,19 +8811,19 @@
         <v>207111</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>189114</v>
+        <v>187925</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>226997</v>
+        <v>227857</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5212250990859787</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4759333290163758</v>
+        <v>0.4729404667455104</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5712704036113873</v>
+        <v>0.5734342327107399</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>455</v>
@@ -8832,19 +8832,19 @@
         <v>480001</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>450388</v>
+        <v>448764</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>509006</v>
+        <v>510113</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5355974235974906</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5025543017725316</v>
+        <v>0.5007420700101816</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.567962305280749</v>
+        <v>0.5691975842274113</v>
       </c>
     </row>
     <row r="38">
@@ -8861,19 +8861,19 @@
         <v>94770</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>77159</v>
+        <v>77327</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>113403</v>
+        <v>116145</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1899806942820668</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1546755436849299</v>
+        <v>0.155013010339281</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2273322678171911</v>
+        <v>0.2328293353811144</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>63</v>
@@ -8882,19 +8882,19 @@
         <v>66532</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>52583</v>
+        <v>50743</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>82932</v>
+        <v>81956</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1674363421814314</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1323334025522288</v>
+        <v>0.1277028649224475</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2087098610260536</v>
+        <v>0.2062548359518638</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>151</v>
@@ -8903,19 +8903,19 @@
         <v>161302</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>138605</v>
+        <v>139601</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>184556</v>
+        <v>188890</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1799849915346802</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1546595605437011</v>
+        <v>0.155769895000955</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.205932880218383</v>
+        <v>0.2107679469270459</v>
       </c>
     </row>
     <row r="39">
